--- a/excel/speedtest.xlsx
+++ b/excel/speedtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elliot\Documents\Python\compressible_wedge\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3C07F6-5311-4F03-961B-D35B9C253889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E946FA66-C849-4D1B-A377-A377513563E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49047753-E07C-485B-96BD-AFAF55C7913D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{49047753-E07C-485B-96BD-AFAF55C7913D}"/>
   </bookViews>
   <sheets>
     <sheet name="AUSM" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Matlab</t>
-  </si>
-  <si>
-    <t>Python</t>
   </si>
   <si>
     <t>Grid Dimension</t>
@@ -57,6 +54,12 @@
   </si>
   <si>
     <t>Iteration #</t>
+  </si>
+  <si>
+    <t>Python v1</t>
+  </si>
+  <si>
+    <t>Python v2</t>
   </si>
 </sst>
 </file>
@@ -117,17 +120,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,9 +199,9 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="sysDash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -610,7 +614,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -775,14 +779,60 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19583541740406984"/>
-          <c:y val="7.5648984086987212E-2"/>
-          <c:w val="0.33115777624333437"/>
-          <c:h val="0.21073015028432293"/>
+          <c:x val="0.16332951732097317"/>
+          <c:y val="8.3314120446093071E-2"/>
+          <c:w val="0.33115774092068273"/>
+          <c:h val="0.18007011999705469"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -798,7 +848,754 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Python v1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13914926192736546"/>
+                  <c:y val="0.41537497721613109"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AUSM!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29520</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59392</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AUSM!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.7177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86570000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.742</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.792999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EB97-4640-9552-A22755875E3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Python v2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21250558440833195"/>
+                  <c:y val="0.35827860175245668"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AUSM!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29520</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59392</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AUSM!$G$3:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.8347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.955</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.877000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101.88800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB97-4640-9552-A22755875E3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="263307312"/>
+        <c:axId val="259354848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="263307312"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Element</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259354848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="259354848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263307312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16332951732097317"/>
+          <c:y val="8.3314120446093071E-2"/>
+          <c:w val="0.33115774092068273"/>
+          <c:h val="0.18007011999705469"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -898,7 +1695,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1447,6 +2800,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>183198</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D911009-56A1-4BAD-9D92-32BC769305C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1752,10 +3143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7E773B-0ADD-4204-A5D8-3C788CA7A52F}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1766,60 +3157,66 @@
     <col min="4" max="4" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2"/>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>24</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>20</v>
       </c>
       <c r="C3">
         <f>A3*B3</f>
         <v>480</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>50.79</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.7177</v>
       </c>
+      <c r="G3">
+        <v>0.8347</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>30</v>
       </c>
@@ -1840,7 +3237,7 @@
         <v>0.86570000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>48</v>
       </c>
@@ -1860,8 +3257,11 @@
       <c r="F5" s="1">
         <v>1.59</v>
       </c>
+      <c r="G5">
+        <v>1.6870000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>60</v>
       </c>
@@ -1882,7 +3282,7 @@
         <v>2.1139999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>72</v>
       </c>
@@ -1890,7 +3290,7 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C15" si="0">A7*B7</f>
+        <f t="shared" ref="C7:C14" si="0">A7*B7</f>
         <v>4320</v>
       </c>
       <c r="D7">
@@ -1903,7 +3303,7 @@
         <v>2.7450000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>80</v>
       </c>
@@ -1924,7 +3324,7 @@
         <v>3.4569999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>92</v>
       </c>
@@ -1944,8 +3344,11 @@
       <c r="F9">
         <v>4.72</v>
       </c>
+      <c r="G9">
+        <v>4.3440000000000003</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>104</v>
       </c>
@@ -1965,8 +3368,11 @@
       <c r="F10">
         <v>6.742</v>
       </c>
+      <c r="G10">
+        <v>6.4130000000000003</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>144</v>
       </c>
@@ -1986,8 +3392,11 @@
       <c r="F11">
         <v>12.605</v>
       </c>
+      <c r="G11">
+        <v>11.955</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>180</v>
       </c>
@@ -2007,8 +3416,11 @@
       <c r="F12">
         <v>19.041</v>
       </c>
+      <c r="G12">
+        <v>18.988</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>256</v>
       </c>
@@ -2028,8 +3440,11 @@
       <c r="F13">
         <v>47.792999999999999</v>
       </c>
+      <c r="G13">
+        <v>48.877000000000002</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>360</v>
       </c>
@@ -2048,6 +3463,9 @@
       </c>
       <c r="F14">
         <v>98.384</v>
+      </c>
+      <c r="G14">
+        <v>101.88800000000001</v>
       </c>
     </row>
   </sheetData>

--- a/excel/speedtest.xlsx
+++ b/excel/speedtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elliot\Documents\Python\compressible_wedge\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E946FA66-C849-4D1B-A377-A377513563E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBB8FB7-C407-40F5-B333-123D1E2466BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{49047753-E07C-485B-96BD-AFAF55C7913D}"/>
   </bookViews>
@@ -66,6 +66,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -128,10 +131,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +475,7 @@
             <c:numRef>
               <c:f>AUSM!$F$3:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.7177</c:v>
@@ -972,8 +978,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13914926192736546"/>
-                  <c:y val="0.41537497721613109"/>
+                  <c:x val="0.17704459150053051"/>
+                  <c:y val="0.48052778907750388"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
@@ -1055,7 +1061,7 @@
             <c:numRef>
               <c:f>AUSM!$F$3:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.7177</c:v>
@@ -1145,8 +1151,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.21250558440833195"/>
-                  <c:y val="0.35827860175245668"/>
+                  <c:x val="-5.0496779657861916E-2"/>
+                  <c:y val="0.31770611404367499"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
@@ -1228,31 +1234,43 @@
             <c:numRef>
               <c:f>AUSM!$G$3:$G$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.8347</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6870000000000001</c:v>
+                  <c:v>0.95369000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1306400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.9319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>2.806</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.6819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3086000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3440000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.4130000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.955</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.988</c:v>
+                  <c:v>6.6508000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>8.0280000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>13.912000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>22.774000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.877000000000002</c:v>
+                  <c:v>52.22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>101.88800000000001</c:v>
+                  <c:v>111.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,7 +1493,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1576,8 +1594,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16332951732097317"/>
-          <c:y val="8.3314120446093071E-2"/>
+          <c:x val="0.16923968280560675"/>
+          <c:y val="6.0319010377373292E-2"/>
           <c:w val="0.33115774092068273"/>
           <c:h val="0.18007011999705469"/>
         </c:manualLayout>
@@ -3146,7 +3164,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3158,20 +3176,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -3188,7 +3206,7 @@
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3209,11 +3227,11 @@
       <c r="E3" s="4">
         <v>50.79</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="8">
         <v>0.7177</v>
       </c>
-      <c r="G3">
-        <v>0.8347</v>
+      <c r="G3" s="7">
+        <v>0.95369000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3233,8 +3251,11 @@
       <c r="E4" s="1">
         <v>51.23</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="9">
         <v>0.86570000000000003</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.1306400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3254,11 +3275,11 @@
       <c r="E5" s="1">
         <v>52.45</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="9">
         <v>1.59</v>
       </c>
       <c r="G5">
-        <v>1.6870000000000001</v>
+        <v>1.9319999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3278,8 +3299,11 @@
       <c r="E6">
         <v>56.24</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>2.1139999999999999</v>
+      </c>
+      <c r="G6">
+        <v>2.806</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3299,8 +3323,11 @@
       <c r="E7">
         <v>58.51</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>2.7450000000000001</v>
+      </c>
+      <c r="G7">
+        <v>3.6819999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3320,8 +3347,11 @@
       <c r="E8">
         <v>60.23</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>3.4569999999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4.3086000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3341,11 +3371,11 @@
       <c r="E9">
         <v>60.39</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>4.72</v>
       </c>
-      <c r="G9">
-        <v>4.3440000000000003</v>
+      <c r="G9" s="7">
+        <v>6.6508000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3365,11 +3395,11 @@
       <c r="E10">
         <v>62.63</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>6.742</v>
       </c>
       <c r="G10">
-        <v>6.4130000000000003</v>
+        <v>8.0280000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -3389,11 +3419,11 @@
       <c r="E11">
         <v>69.05</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>12.605</v>
       </c>
       <c r="G11">
-        <v>11.955</v>
+        <v>13.912000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3413,11 +3443,11 @@
       <c r="E12">
         <v>71.02</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>19.041</v>
       </c>
       <c r="G12">
-        <v>18.988</v>
+        <v>22.774000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3437,11 +3467,11 @@
       <c r="E13">
         <v>98.56</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>47.792999999999999</v>
       </c>
-      <c r="G13">
-        <v>48.877000000000002</v>
+      <c r="G13" s="7">
+        <v>52.22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3461,11 +3491,11 @@
       <c r="E14">
         <v>144.76</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>98.384</v>
       </c>
-      <c r="G14">
-        <v>101.88800000000001</v>
+      <c r="G14" s="7">
+        <v>111.84</v>
       </c>
     </row>
   </sheetData>

--- a/excel/speedtest.xlsx
+++ b/excel/speedtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elliot\Documents\Python\compressible_wedge\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBB8FB7-C407-40F5-B333-123D1E2466BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F3C79-3437-4768-B01E-A9B27BCCEE24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{49047753-E07C-485B-96BD-AFAF55C7913D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Matlab</t>
   </si>
@@ -61,13 +61,16 @@
   <si>
     <t>Python v2</t>
   </si>
+  <si>
+    <t xml:space="preserve">AUSM scheme, first degree Mach and pressure splitting polynomials </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -132,12 +135,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,7 +256,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>AUSM!$C$3:$C$14</c:f>
+              <c:f>AUSM!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -298,7 +301,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AUSM!$E$3:$E$14</c:f>
+              <c:f>AUSM!$E$4:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -428,7 +431,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>AUSM!$C$3:$C$14</c:f>
+              <c:f>AUSM!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -473,7 +476,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AUSM!$F$3:$F$14</c:f>
+              <c:f>AUSM!$F$4:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1014,7 +1017,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>AUSM!$C$3:$C$14</c:f>
+              <c:f>AUSM!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1059,7 +1062,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AUSM!$F$3:$F$14</c:f>
+              <c:f>AUSM!$F$4:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1187,7 +1190,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>AUSM!$C$3:$C$14</c:f>
+              <c:f>AUSM!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1232,45 +1235,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AUSM!$G$3:$G$14</c:f>
+              <c:f>AUSM!$G$4:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.95369000000000004</c:v>
+                  <c:v>0.93369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1306400000000001</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>1.9319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>2.806</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>3.6819999999999999</c:v>
+                  <c:v>1.060662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9113869999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6871390000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6378360000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3086000000000002</c:v>
+                  <c:v>3.9627289999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6508000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>8.0280000000000005</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>13.912000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>22.774000000000001</c:v>
+                  <c:v>5.610201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.248753000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.22</c:v>
+                  <c:v>51.500487</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>111.84</c:v>
+                  <c:v>108.824067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2791,13 +2788,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>588645</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>12382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2827,13 +2824,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>183198</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3161,10 +3158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7E773B-0ADD-4204-A5D8-3C788CA7A52F}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3176,332 +3173,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6"/>
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <f>A3*B3</f>
-        <v>480</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="4">
-        <v>50.79</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.7177</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.95369000000000004</v>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1">
-        <v>26</v>
+      <c r="A4" s="4">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20</v>
       </c>
       <c r="C4">
         <f>A4*B4</f>
-        <v>780</v>
-      </c>
-      <c r="D4" s="1">
+        <v>480</v>
+      </c>
+      <c r="D4" s="4">
         <v>1000</v>
       </c>
-      <c r="E4" s="1">
-        <v>51.23</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.86570000000000003</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1.1306400000000001</v>
+      <c r="E4" s="4">
+        <v>50.79</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.7177</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.93369999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <f>A5*B5</f>
-        <v>2016</v>
+        <v>780</v>
       </c>
       <c r="D5" s="1">
         <v>1000</v>
       </c>
       <c r="E5" s="1">
-        <v>52.45</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1.59</v>
-      </c>
-      <c r="G5">
-        <v>1.9319999999999999</v>
+        <v>51.23</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.060662</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>54</v>
+      <c r="A6" s="1">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42</v>
       </c>
       <c r="C6">
         <f>A6*B6</f>
-        <v>3240</v>
-      </c>
-      <c r="D6">
+        <v>2016</v>
+      </c>
+      <c r="D6" s="1">
         <v>1000</v>
       </c>
-      <c r="E6">
-        <v>56.24</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2.1139999999999999</v>
-      </c>
-      <c r="G6">
-        <v>2.806</v>
+      <c r="E6" s="1">
+        <v>52.45</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.59</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.9113869999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C14" si="0">A7*B7</f>
-        <v>4320</v>
+        <f>A7*B7</f>
+        <v>3240</v>
       </c>
       <c r="D7">
         <v>1000</v>
       </c>
       <c r="E7">
-        <v>58.51</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2.7450000000000001</v>
-      </c>
-      <c r="G7">
-        <v>3.6819999999999999</v>
+        <v>56.24</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2.1139999999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2.6871390000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>5760</v>
+        <f t="shared" ref="C8:C15" si="0">A8*B8</f>
+        <v>4320</v>
       </c>
       <c r="D8">
         <v>1000</v>
       </c>
       <c r="E8">
-        <v>60.23</v>
-      </c>
-      <c r="F8" s="7">
-        <v>3.4569999999999999</v>
-      </c>
-      <c r="G8" s="7">
-        <v>4.3086000000000002</v>
+        <v>58.51</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3.6378360000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>7728</v>
+        <v>5760</v>
       </c>
       <c r="D9">
         <v>1000</v>
       </c>
       <c r="E9">
-        <v>60.39</v>
-      </c>
-      <c r="F9" s="7">
-        <v>4.72</v>
-      </c>
-      <c r="G9" s="7">
-        <v>6.6508000000000003</v>
+        <v>60.23</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3.4569999999999999</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3.9627289999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B10">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>9984</v>
+        <v>7728</v>
       </c>
       <c r="D10">
         <v>1000</v>
       </c>
       <c r="E10">
-        <v>62.63</v>
-      </c>
-      <c r="F10" s="7">
-        <v>6.742</v>
-      </c>
-      <c r="G10">
-        <v>8.0280000000000005</v>
+        <v>60.39</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4.72</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5.610201</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B11">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>19008</v>
+        <v>9984</v>
       </c>
       <c r="D11">
         <v>1000</v>
       </c>
       <c r="E11">
-        <v>69.05</v>
-      </c>
-      <c r="F11" s="7">
-        <v>12.605</v>
-      </c>
-      <c r="G11">
-        <v>13.912000000000001</v>
-      </c>
+        <v>62.63</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6.742</v>
+      </c>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B12">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>29520</v>
+        <v>19008</v>
       </c>
       <c r="D12">
         <v>1000</v>
       </c>
       <c r="E12">
-        <v>71.02</v>
-      </c>
-      <c r="F12" s="7">
-        <v>19.041</v>
-      </c>
-      <c r="G12">
-        <v>22.774000000000001</v>
+        <v>69.05</v>
+      </c>
+      <c r="F12" s="6">
+        <v>12.605</v>
+      </c>
+      <c r="G12" s="6">
+        <v>13.248753000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="B13">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>59392</v>
+        <v>29520</v>
       </c>
       <c r="D13">
         <v>1000</v>
       </c>
       <c r="E13">
-        <v>98.56</v>
-      </c>
-      <c r="F13" s="7">
-        <v>47.792999999999999</v>
-      </c>
-      <c r="G13" s="7">
-        <v>52.22</v>
-      </c>
+        <v>71.02</v>
+      </c>
+      <c r="F13" s="6">
+        <v>19.041</v>
+      </c>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>360</v>
+        <v>256</v>
       </c>
       <c r="B14">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>115200</v>
+        <v>59392</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
       <c r="E14">
+        <v>98.56</v>
+      </c>
+      <c r="F14" s="6">
+        <v>47.792999999999999</v>
+      </c>
+      <c r="G14" s="6">
+        <v>51.500487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>360</v>
+      </c>
+      <c r="B15">
+        <v>320</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>115200</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
         <v>144.76</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="6">
         <v>98.384</v>
       </c>
-      <c r="G14" s="7">
-        <v>111.84</v>
+      <c r="G15" s="6">
+        <v>108.824067</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/speedtest.xlsx
+++ b/excel/speedtest.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elliot\Documents\Python\compressible_wedge\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F3C79-3437-4768-B01E-A9B27BCCEE24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA5A14A-915B-461D-B76A-B90AE1FA3C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{49047753-E07C-485B-96BD-AFAF55C7913D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{49047753-E07C-485B-96BD-AFAF55C7913D}"/>
   </bookViews>
   <sheets>
     <sheet name="AUSM" sheetId="1" r:id="rId1"/>
+    <sheet name="Ansys Comparison" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Matlab</t>
   </si>
@@ -126,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -138,6 +139,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3160,40 +3164,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7E773B-0ADD-4204-A5D8-3C788CA7A52F}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3212,7 +3216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>24</v>
       </c>
@@ -3236,7 +3240,7 @@
         <v>0.93369999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -3260,7 +3264,7 @@
         <v>1.060662</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>48</v>
       </c>
@@ -3284,7 +3288,7 @@
         <v>1.9113869999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>60</v>
       </c>
@@ -3308,7 +3312,7 @@
         <v>2.6871390000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>72</v>
       </c>
@@ -3332,7 +3336,7 @@
         <v>3.6378360000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>80</v>
       </c>
@@ -3356,7 +3360,7 @@
         <v>3.9627289999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>92</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>5.610201</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>104</v>
       </c>
@@ -3402,7 +3406,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>144</v>
       </c>
@@ -3426,7 +3430,7 @@
         <v>13.248753000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>180</v>
       </c>
@@ -3448,7 +3452,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>256</v>
       </c>
@@ -3472,7 +3476,7 @@
         <v>51.500487</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>360</v>
       </c>
@@ -3505,4 +3509,284 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E3BF1-19DA-4883-AAE4-EAB618DEBA31}">
+  <dimension ref="A2:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <f>A4*B4</f>
+        <v>480</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>50.79</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.7177</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.93369999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <f>A5*B5</f>
+        <v>780</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>51.23</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.060662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <f>A6*B6</f>
+        <v>2016</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>52.45</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.59</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.9113869999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <f>A7*B7</f>
+        <v>3240</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>56.24</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2.1139999999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2.6871390000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C15" si="0">A8*B8</f>
+        <v>4320</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>58.51</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3.6378360000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>72</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>5760</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>60.23</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3.4569999999999999</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3.9627289999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>84</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>7728</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>60.39</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4.72</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5.610201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>104</v>
+      </c>
+      <c r="B11">
+        <v>96</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>9984</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>62.63</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6.742</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>144</v>
+      </c>
+      <c r="B12">
+        <v>132</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>19008</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>69.05</v>
+      </c>
+      <c r="F12" s="6">
+        <v>12.605</v>
+      </c>
+      <c r="G12" s="6">
+        <v>13.248753000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/speedtest.xlsx
+++ b/excel/speedtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elliot\Documents\Python\compressible_wedge\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA5A14A-915B-461D-B76A-B90AE1FA3C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D888EF7A-CA23-4A38-B353-A5D94FF2F2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{49047753-E07C-485B-96BD-AFAF55C7913D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{49047753-E07C-485B-96BD-AFAF55C7913D}"/>
   </bookViews>
   <sheets>
     <sheet name="AUSM" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Matlab</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t xml:space="preserve">AUSM scheme, first degree Mach and pressure splitting polynomials </t>
+  </si>
+  <si>
+    <t>Python 2nd Order</t>
+  </si>
+  <si>
+    <t>Python GUI</t>
   </si>
 </sst>
 </file>
@@ -219,44 +225,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.2877816396752914E-2"/>
-                  <c:y val="-2.1279853450640193E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -372,9 +342,7 @@
             <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -394,44 +362,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.21300320879197396"/>
-                  <c:y val="0.35932080289226775"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -480,45 +412,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AUSM!$F$4:$F$15</c:f>
+              <c:f>AUSM!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.7177</c:v>
+                  <c:v>1.6701649999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86570000000000003</c:v>
+                  <c:v>1.890752</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.59</c:v>
+                  <c:v>2.8193800000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1139999999999999</c:v>
+                  <c:v>3.4683169999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7450000000000001</c:v>
+                  <c:v>4.064063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4569999999999999</c:v>
+                  <c:v>4.8179759999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.72</c:v>
+                  <c:v>5.8391460000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.742</c:v>
+                  <c:v>7.1453720000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.605</c:v>
+                  <c:v>13.392808</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.041</c:v>
+                  <c:v>20.94153</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.792999999999999</c:v>
+                  <c:v>49.770305999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98.384</c:v>
+                  <c:v>106.698522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -527,6 +459,143 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6EC8-40C3-A243-0F93DD5A1667}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Python (2nd Order)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225" cap="rnd" cmpd="dbl">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AUSM!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29520</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59392</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AUSM!$I$4:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.0687950000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.808179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2517319999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3808729999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.034314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.625106000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.721120000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.413540000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.583553000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.864655999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138.06804399999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>302.17179299999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3D2A-4047-A424-223D45217E7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -668,6 +737,7 @@
       <c:valAx>
         <c:axId val="259354848"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -793,7 +863,7 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:legendEntry>
-        <c:idx val="2"/>
+        <c:idx val="3"/>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -816,7 +886,7 @@
         </c:txPr>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="3"/>
+        <c:idx val="4"/>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -842,10 +912,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16332951732097317"/>
-          <c:y val="8.3314120446093071E-2"/>
-          <c:w val="0.33115774092068273"/>
-          <c:h val="0.18007011999705469"/>
+          <c:x val="0.5474902738221552"/>
+          <c:y val="0.53555128513091521"/>
+          <c:w val="0.38061465721040189"/>
+          <c:h val="0.27369763784089796"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2790,16 +2860,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>588645</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12382</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>183832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2826,16 +2896,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>183198</xdr:rowOff>
+      <xdr:rowOff>170498</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3162,26 +3232,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7E773B-0ADD-4204-A5D8-3C788CA7A52F}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3197,7 +3268,7 @@
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3215,8 +3286,14 @@
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>24</v>
       </c>
@@ -3239,8 +3316,14 @@
       <c r="G4" s="6">
         <v>0.93369999999999997</v>
       </c>
+      <c r="H4" s="6">
+        <v>1.6701649999999999</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2.0687950000000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -3263,8 +3346,14 @@
       <c r="G5" s="6">
         <v>1.060662</v>
       </c>
+      <c r="H5" s="6">
+        <v>1.890752</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3.808179</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>48</v>
       </c>
@@ -3287,8 +3376,14 @@
       <c r="G6" s="6">
         <v>1.9113869999999999</v>
       </c>
+      <c r="H6" s="6">
+        <v>2.8193800000000002</v>
+      </c>
+      <c r="I6" s="6">
+        <v>6.2517319999999996</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>60</v>
       </c>
@@ -3311,8 +3406,14 @@
       <c r="G7" s="6">
         <v>2.6871390000000002</v>
       </c>
+      <c r="H7" s="6">
+        <v>3.4683169999999999</v>
+      </c>
+      <c r="I7" s="6">
+        <v>8.3808729999999994</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>72</v>
       </c>
@@ -3335,8 +3436,14 @@
       <c r="G8" s="6">
         <v>3.6378360000000001</v>
       </c>
+      <c r="H8" s="6">
+        <v>4.064063</v>
+      </c>
+      <c r="I8" s="6">
+        <v>10.034314</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>80</v>
       </c>
@@ -3359,8 +3466,14 @@
       <c r="G9" s="6">
         <v>3.9627289999999999</v>
       </c>
+      <c r="H9" s="6">
+        <v>4.8179759999999998</v>
+      </c>
+      <c r="I9" s="6">
+        <v>12.625106000000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>92</v>
       </c>
@@ -3383,8 +3496,14 @@
       <c r="G10" s="6">
         <v>5.610201</v>
       </c>
+      <c r="H10" s="6">
+        <v>5.8391460000000004</v>
+      </c>
+      <c r="I10" s="6">
+        <v>15.721120000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>104</v>
       </c>
@@ -3405,8 +3524,14 @@
         <v>6.742</v>
       </c>
       <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>7.1453720000000001</v>
+      </c>
+      <c r="I11" s="6">
+        <v>23.413540000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>144</v>
       </c>
@@ -3429,8 +3554,14 @@
       <c r="G12" s="6">
         <v>13.248753000000001</v>
       </c>
+      <c r="H12" s="6">
+        <v>13.392808</v>
+      </c>
+      <c r="I12" s="6">
+        <v>40.583553000000002</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>180</v>
       </c>
@@ -3451,8 +3582,14 @@
         <v>19.041</v>
       </c>
       <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <v>20.94153</v>
+      </c>
+      <c r="I13" s="6">
+        <v>67.864655999999997</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>256</v>
       </c>
@@ -3475,8 +3612,14 @@
       <c r="G14" s="6">
         <v>51.500487</v>
       </c>
+      <c r="H14" s="6">
+        <v>49.770305999999998</v>
+      </c>
+      <c r="I14" s="6">
+        <v>138.06804399999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>360</v>
       </c>
@@ -3498,6 +3641,12 @@
       </c>
       <c r="G15" s="6">
         <v>108.824067</v>
+      </c>
+      <c r="H15" s="6">
+        <v>106.698522</v>
+      </c>
+      <c r="I15" s="6">
+        <v>302.17179299999998</v>
       </c>
     </row>
   </sheetData>
@@ -3519,9 +3668,9 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3537,7 +3686,7 @@
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3556,7 +3705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>24</v>
       </c>
@@ -3580,7 +3729,7 @@
         <v>0.93369999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -3604,7 +3753,7 @@
         <v>1.060662</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>48</v>
       </c>
@@ -3628,7 +3777,7 @@
         <v>1.9113869999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>60</v>
       </c>
@@ -3652,7 +3801,7 @@
         <v>2.6871390000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>72</v>
       </c>
@@ -3660,7 +3809,7 @@
         <v>60</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C15" si="0">A8*B8</f>
+        <f t="shared" ref="C8:C12" si="0">A8*B8</f>
         <v>4320</v>
       </c>
       <c r="D8">
@@ -3676,7 +3825,7 @@
         <v>3.6378360000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>80</v>
       </c>
@@ -3700,7 +3849,7 @@
         <v>3.9627289999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>92</v>
       </c>
@@ -3724,7 +3873,7 @@
         <v>5.610201</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>104</v>
       </c>
@@ -3746,7 +3895,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>144</v>
       </c>
@@ -3770,15 +3919,15 @@
         <v>13.248753000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
